--- a/tabelas/Experimentos/Desempenho Series Financeiras/Comparação.xlsx
+++ b/tabelas/Experimentos/Desempenho Series Financeiras/Comparação.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>minha maquina - 0.8 - 0.2</t>
   </si>
@@ -54,10 +54,16 @@
     <t>M-IDPSO-ELM-SV</t>
   </si>
   <si>
-    <t>RPSO</t>
-  </si>
-  <si>
     <t>RPSO-ELM</t>
+  </si>
+  <si>
+    <t>servidor - 0.6 - 0.2 - xmax - 0.3</t>
+  </si>
+  <si>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>Superior ganhou</t>
   </si>
 </sst>
 </file>
@@ -382,31 +388,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,11 +442,8 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.7041354819999999</v>
       </c>
@@ -470,13 +472,10 @@
         <v>4.3345900000000001E-3</v>
       </c>
       <c r="J3">
-        <v>9999</v>
-      </c>
-      <c r="K3">
         <v>4.6686119999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11.75401892</v>
       </c>
@@ -505,13 +504,10 @@
         <v>3.255511E-3</v>
       </c>
       <c r="J4">
-        <v>9999</v>
-      </c>
-      <c r="K4">
         <v>3.5603229999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24.448417939999999</v>
       </c>
@@ -540,18 +536,15 @@
         <v>2.215252E-3</v>
       </c>
       <c r="J5">
-        <v>9999</v>
-      </c>
-      <c r="K5">
         <v>2.3988600000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,11 +575,8 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.2734507169999993</v>
       </c>
@@ -615,13 +605,10 @@
         <v>4.3474250000000002E-3</v>
       </c>
       <c r="J10">
-        <v>9999</v>
-      </c>
-      <c r="K10">
         <v>4.7488649999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10.254400459999999</v>
       </c>
@@ -650,13 +637,10 @@
         <v>3.2076180000000002E-3</v>
       </c>
       <c r="J11">
-        <v>9999</v>
-      </c>
-      <c r="K11">
         <v>3.6918960000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23.332604610000001</v>
       </c>
@@ -685,100 +669,302 @@
         <v>2.2283009999999998E-3</v>
       </c>
       <c r="J12">
-        <v>9999</v>
-      </c>
-      <c r="K12">
         <v>2.270125E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15">
         <f>E3-E10</f>
         <v>-5.587919999999998E-4</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:K14" si="0">F3-F10</f>
+      <c r="F15">
+        <f>F3-F10</f>
         <v>4.7017700000000044E-4</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="G15">
+        <f>G3-G10</f>
         <v>-6.8872099999999978E-4</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="H15">
+        <f>H3-H10</f>
         <v>2.9712900000000014E-4</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f>I3-I10</f>
         <v>-1.2835000000000103E-5</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
+      <c r="J15">
+        <f>J3-J10</f>
         <v>-8.0252999999999748E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16">
         <f>E4-E11</f>
         <v>1.6758279999999999E-3</v>
       </c>
-      <c r="F15">
-        <f t="shared" ref="F15:K15" si="1">F4-F11</f>
+      <c r="F16">
+        <f>F4-F11</f>
         <v>-4.8024699999999962E-4</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="G16">
+        <f>G4-G11</f>
         <v>2.9398599999999955E-4</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f>H4-H11</f>
         <v>2.3036600000000008E-4</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="I16">
+        <f>I4-I11</f>
         <v>4.7892999999999807E-5</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
+      <c r="J16">
+        <f>J4-J11</f>
         <v>-1.3157300000000028E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17">
         <f>E5-E12</f>
         <v>-4.7847100000000028E-4</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:K16" si="2">F5-F12</f>
+      <c r="F17">
+        <f>F5-F12</f>
         <v>5.3971700000000032E-4</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="G17">
+        <f>G5-G12</f>
         <v>-1.6123399999999968E-4</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
+      <c r="H17">
+        <f>H5-H12</f>
         <v>2.0411300000000012E-4</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="I17">
+        <f>I5-I12</f>
         <v>-1.3048999999999786E-5</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
+      <c r="J17">
+        <f>J5-J12</f>
         <v>1.2873500000000005E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.6025224179999999</v>
+      </c>
+      <c r="B22">
+        <v>8.8007459999999999E-3</v>
+      </c>
+      <c r="C22">
+        <v>1.0329392999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.0911979999999998E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.2920499999999996E-3</v>
+      </c>
+      <c r="F22">
+        <v>8.9843419999999993E-3</v>
+      </c>
+      <c r="G22">
+        <v>7.6202600000000002E-3</v>
+      </c>
+      <c r="H22">
+        <v>4.5265009999999996E-3</v>
+      </c>
+      <c r="I22">
+        <v>4.3364509999999998E-3</v>
+      </c>
+      <c r="J22">
+        <v>4.0354179999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12.06785479</v>
+      </c>
+      <c r="B23">
+        <v>6.9492310000000002E-3</v>
+      </c>
+      <c r="C23">
+        <v>1.1214257E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.4828710000000003E-3</v>
+      </c>
+      <c r="E23">
+        <v>6.0276959999999999E-3</v>
+      </c>
+      <c r="F23">
+        <v>8.313005E-3</v>
+      </c>
+      <c r="G23">
+        <v>6.1821080000000004E-3</v>
+      </c>
+      <c r="H23">
+        <v>3.5174440000000002E-3</v>
+      </c>
+      <c r="I23">
+        <v>3.8697470000000002E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.4186680000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27.385242160000001</v>
+      </c>
+      <c r="B24">
+        <v>4.1292400000000002E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.1699149999999998E-3</v>
+      </c>
+      <c r="D24">
+        <v>8.0755219999999999E-3</v>
+      </c>
+      <c r="E24">
+        <v>4.312883E-3</v>
+      </c>
+      <c r="F24">
+        <v>4.5396589999999997E-3</v>
+      </c>
+      <c r="G24">
+        <v>4.2201349999999999E-3</v>
+      </c>
+      <c r="H24">
+        <v>2.3982780000000002E-3</v>
+      </c>
+      <c r="I24">
+        <v>2.4100269999999999E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.1503260000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>E10-E22</f>
+        <v>2.8040500000000006E-4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:J27" si="0">F10-F22</f>
+        <v>-2.1559600000000019E-4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1.0871249999999996E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-5.4318399999999951E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1.09740000000004E-5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>7.1344699999999987E-4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" ref="E28:J29" si="1">E11-E23</f>
+        <v>-8.1028300000000018E-4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>-1.7189650000000002E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-9.1153000000000067E-5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-4.984620000000003E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-6.6212900000000002E-4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2.7322799999999993E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.1865870000000002E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>-1.2279700000000001E-4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>8.2038600000000021E-4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-1.3705600000000042E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-1.8172600000000011E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1.1979899999999986E-4</v>
       </c>
     </row>
   </sheetData>
